--- a/Running projects/DHL Office - Shahrah e Faisal Karachi/VO/01- variation order for water proofing.xlsx
+++ b/Running projects/DHL Office - Shahrah e Faisal Karachi/VO/01- variation order for water proofing.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15221AA9-D43F-4E1E-8E64-CB4176AAB297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4809DBE8-6E69-44A4-BC12-A4FF66D05D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -833,7 +833,7 @@
   <dimension ref="A7:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="I26" sqref="I26:J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Running projects/DHL Office - Shahrah e Faisal Karachi/VO/01- variation order for water proofing.xlsx
+++ b/Running projects/DHL Office - Shahrah e Faisal Karachi/VO/01- variation order for water proofing.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4809DBE8-6E69-44A4-BC12-A4FF66D05D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417B8C64-966A-4C8E-A081-A0B27209BE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$91</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
@@ -498,16 +498,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>191493</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>144075</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>1200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -530,8 +530,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7820025" y="0"/>
-          <a:ext cx="7116168" cy="8602275"/>
+          <a:off x="114300" y="11096625"/>
+          <a:ext cx="5876925" cy="8602275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -832,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A7:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26:J26"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
